--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.013120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.013120.xlsx_with_dialog_acts.xlsx
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3833,12 +3833,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5051,12 +5051,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5601,12 +5601,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6279,12 +6279,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
